--- a/empty_static/sampleInputQBFormat.xlsx
+++ b/empty_static/sampleInputQBFormat.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t xml:space="preserve">Group ID</t>
   </si>
   <si>
-    <t xml:space="preserve">QuestionType</t>
+    <t xml:space="preserve">Question Type</t>
   </si>
   <si>
     <t xml:space="preserve">Question Content</t>
@@ -307,28 +307,6 @@
   </si>
   <si>
     <t xml:space="preserve">CO03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
-  {
-    "co": "CO1",
-    "weightage": 10
-  },
-  {
-    "co": "CO2",
-    "weightage": 75
-  },
-  {
-    "co": "CO3",
-    "weightage": 15
-  }
-]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibility in UX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Readers and Assistive Technologies</t>
   </si>
 </sst>
 </file>
@@ -424,11 +402,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,10 +533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMK17"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1081,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1118,10 +1096,10 @@
       <c r="E14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -1139,20 +1117,9 @@
       <c r="M14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AMK14" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0"/>
-      <c r="M17" s="0"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/empty_static/sampleInputQBFormat.xlsx
+++ b/empty_static/sampleInputQBFormat.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Complexity</t>
   </si>
   <si>
-    <t xml:space="preserve">Topic</t>
+    <t xml:space="preserve">Course Topic</t>
   </si>
   <si>
     <t xml:space="preserve">Course Sub Topic</t>
@@ -535,14 +535,15 @@
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="65.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="50.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="11.52"/>
   </cols>

--- a/empty_static/sampleInputQBFormat.xlsx
+++ b/empty_static/sampleInputQBFormat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t xml:space="preserve">Group ID</t>
   </si>
@@ -280,8 +280,7 @@
     <t xml:space="preserve">output</t>
   </si>
   <si>
-    <t xml:space="preserve">[type=text]
-What is the output of the below program?
+    <t xml:space="preserve">What is the output of the below program?
 [type=code]
 #include &lt;stdio.h&gt;
 int main()
@@ -307,6 +306,28 @@
   </si>
   <si>
     <t xml:space="preserve">CO03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[
+  {
+    "co": "CO1",
+    "weightage": 10
+  },
+  {
+    "co": "CO2",
+    "weightage": 75
+  },
+  {
+    "co": "CO3",
+    "weightage": 15
+  }
+]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility in UX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen Readers and Assistive Technologies</t>
   </si>
 </sst>
 </file>
@@ -389,7 +410,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,6 +425,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -535,15 +560,14 @@
   </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L8" activeCellId="0" sqref="L8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="65.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="27.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="50.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="11.52"/>
   </cols>
@@ -1081,7 +1105,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="255.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>3</v>
       </c>
@@ -1103,6 +1127,9 @@
       <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="H14" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>89</v>
       </c>
@@ -1118,9 +1145,15 @@
       <c r="M14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="Q14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/empty_static/sampleInputQBFormat.xlsx
+++ b/empty_static/sampleInputQBFormat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="90">
   <si>
     <t xml:space="preserve">Group ID</t>
   </si>
@@ -306,28 +306,6 @@
   </si>
   <si>
     <t xml:space="preserve">CO03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[
-  {
-    "co": "CO1",
-    "weightage": 10
-  },
-  {
-    "co": "CO2",
-    "weightage": 75
-  },
-  {
-    "co": "CO3",
-    "weightage": 15
-  }
-]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accessibility in UX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen Readers and Assistive Technologies</t>
   </si>
 </sst>
 </file>
@@ -410,7 +388,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -428,10 +406,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,10 +532,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,7 +543,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="50.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1016" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1144,15 +1119,6 @@
       </c>
       <c r="M14" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/empty_static/sampleInputQBFormat.xlsx
+++ b/empty_static/sampleInputQBFormat.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -544,7 +544,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="50.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="1016" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16376" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +713,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
